--- a/Employee Recruiting and Retention Analysis/Recruiting_Retention_Analysis.xlsx
+++ b/Employee Recruiting and Retention Analysis/Recruiting_Retention_Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarperez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarperez/Desktop/Waitr Practical/Final versions/Employee Recruting and Retention Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB31AD3-0968-E94A-863A-81743B7BAE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7321DBCB-A86C-9642-936B-8B97D6D684FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="460" windowWidth="17360" windowHeight="15960" activeTab="1" xr2:uid="{415271B7-E03F-334E-A347-CBB9BD96F7B1}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="17360" windowHeight="15960" activeTab="1" xr2:uid="{415271B7-E03F-334E-A347-CBB9BD96F7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="43">
   <si>
     <t>Number of Hires</t>
   </si>
@@ -118,21 +118,12 @@
     <t>Drivers Hired</t>
   </si>
   <si>
-    <t>Avg Yearly Churn</t>
-  </si>
-  <si>
-    <t>3. Given the presented data, I would recommend flyers as the best hiring strategy. Cohorts hired using this strategy worked more hours on average and also had the best attendance and churn rates.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
     <t>Total Cost</t>
   </si>
   <si>
-    <t>4. $80,850.00 were spend on driver acquisition for the year. Also, the costs of each technique further justify the above answer.</t>
-  </si>
-  <si>
     <t>NOTE: for Monthly Churn in E2:E13, it is assumed that the raw data is being reported at the end of the month for said month i.e. 53 active drivers as of April 30th, 95 active drivers as of May 31st, etc.</t>
   </si>
   <si>
@@ -145,12 +136,6 @@
     <t>Recruiting Technique</t>
   </si>
   <si>
-    <t>Churn since hire month</t>
-  </si>
-  <si>
-    <t>March Churn</t>
-  </si>
-  <si>
     <t>Annual Retention</t>
   </si>
   <si>
@@ -158,6 +143,24 @@
   </si>
   <si>
     <t>2. The average monthly churn is 19%. Using this rate to calculate annual retention, we then get an annual churn rate of 92%.</t>
+  </si>
+  <si>
+    <t>Churn Rate</t>
+  </si>
+  <si>
+    <t>1mo Churn</t>
+  </si>
+  <si>
+    <t>Avg 1-mo Churn</t>
+  </si>
+  <si>
+    <t>1-mo Churn</t>
+  </si>
+  <si>
+    <t>3. Given the presented data, I would recommend flyers as the best hiring strategy. Cohorts hired using this strategy worked more hours on average and also had the best attendance and churn rates. Finally, as we'll observe below, flyers are the most cost effective hiring method as well.</t>
+  </si>
+  <si>
+    <t>4. $80,850.00 were spend on driver acquisition for the year. Over 95% of those cost are from digital ads, while flyers only made up about 1% of all costs.</t>
   </si>
 </sst>
 </file>
@@ -304,44 +307,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -387,6 +352,44 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -474,13 +477,13 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7EEF24CB-BA26-C04C-9E2E-C53FC3C0A4B4}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{C840C689-0032-5246-A13D-17DA87729EC9}" name="March Churn" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{C840C689-0032-5246-A13D-17DA87729EC9}" name="Churn Rate" dataCellStyle="Percent">
       <calculatedColumnFormula>SUM(data!B3,data!C4,data!D5,data!E6,data!F7,data!G8,data!H9,data!I10,data!J11,data!K12,data!L13,data!M14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{88CFEF4D-6833-EA40-9F67-83BFCC797F6F}" name="Annual Retention" dataDxfId="1" dataCellStyle="Percent">
-      <calculatedColumnFormula>(1-Table2[[#This Row],[March Churn]])^12</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{88CFEF4D-6833-EA40-9F67-83BFCC797F6F}" name="Annual Retention" dataDxfId="8" dataCellStyle="Percent">
+      <calculatedColumnFormula>(1-Table2[[#This Row],[Churn Rate]])^12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{85E8CE12-2E02-E64C-A70B-DA637F0D16AC}" name="Annual Churn" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{85E8CE12-2E02-E64C-A70B-DA637F0D16AC}" name="Annual Churn" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>1-Table2[[#This Row],[Annual Retention]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -502,14 +505,14 @@
     <tableColumn id="1" xr3:uid="{4C08E36B-5723-8A4F-9E28-420A4E94045E}" name="Hiring Month"/>
     <tableColumn id="2" xr3:uid="{9293252A-528D-EA4B-AE15-B27F7611AA09}" name="Recruting Technique"/>
     <tableColumn id="3" xr3:uid="{FEE11A84-54FA-1D42-B223-A71FD44EDC36}" name="Drivers Hired"/>
-    <tableColumn id="4" xr3:uid="{8521A654-42B1-7F41-B791-D69765ADB4B7}" name="Avg Hrs Worked" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{8521A654-42B1-7F41-B791-D69765ADB4B7}" name="Avg Hrs Worked" dataDxfId="6">
       <calculatedColumnFormula>AVERAGE(data!B19:M19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{89547554-5CC9-1A4F-889D-143326474B8C}" name="Avg Attendance" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{89547554-5CC9-1A4F-889D-143326474B8C}" name="Avg Attendance" dataDxfId="5">
       <calculatedColumnFormula>AVERAGE(data!B35:M35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AE86B35B-759A-CC46-9D87-43381E7806FA}" name="Churn since hire month" dataDxfId="2" dataCellStyle="Percent">
-      <calculatedColumnFormula>1-VLOOKUP(I2,data!$A$3:$M$14,13,FALSE)/K2</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{AE86B35B-759A-CC46-9D87-43381E7806FA}" name="1-mo Churn" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q3:R14,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -517,7 +520,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE1190D5-9147-634A-B9CE-3B35665018FA}" name="Table4" displayName="Table4" ref="A20:E24" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE1190D5-9147-634A-B9CE-3B35665018FA}" name="Table4" displayName="Table4" ref="A20:E24" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A20:E24" xr:uid="{2571A4BB-3439-C041-B6B3-A25B11D92CE7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -528,9 +531,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EBCF7A48-CFF3-C94D-9713-359DA90B7D4B}" name="Recruting Technique"/>
     <tableColumn id="2" xr3:uid="{A990669F-A6BF-0B45-A4B6-BB60772BB0A9}" name="Avg Hrs Worked"/>
-    <tableColumn id="3" xr3:uid="{829DB935-9E12-114E-8014-EE1C98D38406}" name="Avg Attendance" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{B506C22E-658D-6146-A7D8-447B5BC60D81}" name="Avg Yearly Churn" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{32B681E0-8160-204E-8618-0A11F3BB7171}" name="Cost" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{829DB935-9E12-114E-8014-EE1C98D38406}" name="Avg Attendance" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{B506C22E-658D-6146-A7D8-447B5BC60D81}" name="Avg 1-mo Churn" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{32B681E0-8160-204E-8618-0A11F3BB7171}" name="Cost" dataDxfId="1" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -833,20 +836,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84844016-66BC-E044-BEBB-52BDF2EE9B27}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -889,8 +892,11 @@
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -936,19 +942,12 @@
       <c r="Q3" t="s">
         <v>2</v>
       </c>
-      <c r="R3">
-        <f>B3-$M3</f>
-        <v>52</v>
-      </c>
-      <c r="S3">
-        <v>11</v>
-      </c>
-      <c r="T3">
-        <f>R3/S3</f>
-        <v>4.7272727272727275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="R3" s="3">
+        <f>(B3-C3)/B3</f>
+        <v>0.30188679245283018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -991,18 +990,12 @@
       <c r="Q4" t="s">
         <v>3</v>
       </c>
-      <c r="R4">
-        <v>56</v>
-      </c>
-      <c r="S4">
-        <v>10</v>
-      </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T14" si="0">R4/S4</f>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="R4" s="3">
+        <f>(C4-D4)/C4</f>
+        <v>0.2413793103448276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1042,18 +1035,12 @@
       <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>51</v>
-      </c>
-      <c r="S5">
-        <v>9</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>5.666666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="R5" s="3">
+        <f>(D5-E5)/D5</f>
+        <v>0.25454545454545452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1090,18 +1077,12 @@
       <c r="Q6" t="s">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>47</v>
-      </c>
-      <c r="S6">
-        <v>8</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>5.875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="R6" s="3">
+        <f>(E6-F6)/E6</f>
+        <v>0.27450980392156865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1135,18 +1116,12 @@
       <c r="Q7" t="s">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>16</v>
-      </c>
-      <c r="S7">
-        <v>7</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>2.2857142857142856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="R7" s="3">
+        <f>(F7-G7)/F7</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1177,18 +1152,12 @@
       <c r="Q8" t="s">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>16</v>
-      </c>
-      <c r="S8">
-        <v>6</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="R8" s="3">
+        <f>(G8-H8)/G8</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1216,18 +1185,12 @@
       <c r="Q9" t="s">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>44</v>
-      </c>
-      <c r="S9">
-        <v>5</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="R9" s="3">
+        <f>(H9-I9)/H9</f>
+        <v>0.24561403508771928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1252,18 +1215,12 @@
       <c r="Q10" t="s">
         <v>9</v>
       </c>
-      <c r="R10">
-        <v>85</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="R10" s="3">
+        <f>(I10-J10)/I10</f>
+        <v>0.5393258426966292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1285,18 +1242,12 @@
       <c r="Q11" t="s">
         <v>10</v>
       </c>
-      <c r="R11">
-        <v>73</v>
-      </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>24.333333333333332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="R11" s="3">
+        <f>(J11-K11)/J11</f>
+        <v>0.53658536585365857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1315,18 +1266,12 @@
       <c r="Q12" t="s">
         <v>11</v>
       </c>
-      <c r="R12">
-        <v>65</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="R12" s="3">
+        <f>(K12-L12)/K12</f>
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1342,18 +1287,12 @@
       <c r="Q13" t="s">
         <v>12</v>
       </c>
-      <c r="R13">
-        <v>14</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="R13" s="3">
+        <f>(L13-M13)/L13</f>
+        <v>0.2413793103448276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1365,6 +1304,9 @@
       </c>
       <c r="Q14" t="s">
         <v>13</v>
+      </c>
+      <c r="R14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2057,7 +1999,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2078,7 +2020,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -2093,7 +2035,7 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
@@ -2111,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2154,8 +2096,8 @@
         <v>0.83166666666666667</v>
       </c>
       <c r="N2" s="3">
-        <f>1-VLOOKUP(I2,data!$A$3:$M$14,13,FALSE)/K2</f>
-        <v>0.98113207547169812</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q3:R14,2,FALSE)</f>
+        <v>0.30188679245283018</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2199,8 +2141,8 @@
         <v>0.81909090909090909</v>
       </c>
       <c r="N3" s="3">
-        <f>1-VLOOKUP(I3,data!$A$3:$M$14,13,FALSE)/K3</f>
-        <v>0.96551724137931039</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q4:R15,2,FALSE)</f>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2244,8 +2186,8 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="N4" s="3">
-        <f>1-VLOOKUP(I4,data!$A$3:$M$14,13,FALSE)/K4</f>
-        <v>0.92727272727272725</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q5:R16,2,FALSE)</f>
+        <v>0.25454545454545452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2289,8 +2231,8 @@
         <v>0.82888888888888879</v>
       </c>
       <c r="N5" s="3">
-        <f>1-VLOOKUP(I5,data!$A$3:$M$14,13,FALSE)/K5</f>
-        <v>0.92156862745098045</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q6:R17,2,FALSE)</f>
+        <v>0.27450980392156865</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2334,8 +2276,8 @@
         <v>0.82999999999999985</v>
       </c>
       <c r="N6" s="3">
-        <f>1-VLOOKUP(I6,data!$A$3:$M$14,13,FALSE)/K6</f>
-        <v>0.4</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q7:R18,2,FALSE)</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2379,8 +2321,8 @@
         <v>0.82285714285714284</v>
       </c>
       <c r="N7" s="3">
-        <f>1-VLOOKUP(I7,data!$A$3:$M$14,13,FALSE)/K7</f>
-        <v>0.35555555555555551</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q8:R19,2,FALSE)</f>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2424,8 +2366,8 @@
         <v>0.82</v>
       </c>
       <c r="N8" s="3">
-        <f>1-VLOOKUP(I8,data!$A$3:$M$14,13,FALSE)/K8</f>
-        <v>0.77192982456140347</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q9:R20,2,FALSE)</f>
+        <v>0.24561403508771928</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2469,8 +2411,8 @@
         <v>0.68599999999999994</v>
       </c>
       <c r="N9" s="3">
-        <f>1-VLOOKUP(I9,data!$A$3:$M$14,13,FALSE)/K9</f>
-        <v>0.9550561797752809</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q10:R21,2,FALSE)</f>
+        <v>0.5393258426966292</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2514,8 +2456,8 @@
         <v>0.68</v>
       </c>
       <c r="N10" s="3">
-        <f>1-VLOOKUP(I10,data!$A$3:$M$14,13,FALSE)/K10</f>
-        <v>0.8902439024390244</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q11:R22,2,FALSE)</f>
+        <v>0.53658536585365857</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2559,8 +2501,8 @@
         <v>0.67666666666666675</v>
       </c>
       <c r="N11" s="3">
-        <f>1-VLOOKUP(I11,data!$A$3:$M$14,13,FALSE)/K11</f>
-        <v>0.77380952380952384</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q12:R23,2,FALSE)</f>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2604,8 +2546,8 @@
         <v>0.83</v>
       </c>
       <c r="N12" s="3">
-        <f>1-VLOOKUP(I12,data!$A$3:$M$14,13,FALSE)/K12</f>
-        <v>0.24137931034482762</v>
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q13:R24,2,FALSE)</f>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2648,9 +2590,9 @@
         <f>AVERAGE(data!B46:M46)</f>
         <v>0.81</v>
       </c>
-      <c r="N13" s="3">
-        <f>1-VLOOKUP(I13,data!$A$3:$M$14,13,FALSE)/K13</f>
-        <v>0</v>
+      <c r="N13" s="3" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[Hiring Month]],data!Q14:R25,2,FALSE)</f>
+        <v>N/A</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2676,16 +2618,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2696,7 +2638,7 @@
         <v>0.23</v>
       </c>
       <c r="C17" s="3">
-        <f>(1-Table2[[#This Row],[March Churn]])^12</f>
+        <f>(1-Table2[[#This Row],[Churn Rate]])^12</f>
         <v>4.3439888521963572E-2</v>
       </c>
       <c r="D17" s="3">
@@ -2713,7 +2655,7 @@
         <v>0.19</v>
       </c>
       <c r="C18" s="3">
-        <f>(1-Table2[[#This Row],[March Churn]])^12</f>
+        <f>(1-Table2[[#This Row],[Churn Rate]])^12</f>
         <v>7.9766443076872598E-2</v>
       </c>
       <c r="D18" s="3">
@@ -2733,10 +2675,10 @@
         <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2744,16 +2686,16 @@
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <f>AVERAGEIF($J$2:$J$13,$A21,L$2:L$13)</f>
+        <f t="shared" ref="B21:D23" si="1">AVERAGEIF($J$2:$J$13,$A21,L$2:L$13)</f>
         <v>18.042352092352093</v>
       </c>
       <c r="C21" s="3">
-        <f>AVERAGEIF($J$2:$J$13,$A21,M$2:M$13)</f>
+        <f t="shared" si="1"/>
         <v>0.82494949494949488</v>
       </c>
       <c r="D21" s="3">
-        <f>AVERAGEIF($J$2:$J$13,$A21,N$2:N$13)</f>
-        <v>0.68697140092584952</v>
+        <f>AVERAGEIF($J$2:$J$11,$A21,N$2:N$11)</f>
+        <v>0.26358707927048003</v>
       </c>
       <c r="E21" s="5">
         <f>SUMIF($J$2:$J$13,A21,$K$2:$K$13)*200</f>
@@ -2765,16 +2707,16 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <f>AVERAGEIF($J$2:$J$13,$A22,L$2:L$13)</f>
+        <f t="shared" si="1"/>
         <v>28.1875</v>
       </c>
       <c r="C22" s="3">
-        <f>AVERAGEIF($J$2:$J$13,$A22,M$2:M$13)</f>
+        <f t="shared" si="1"/>
         <v>0.82642857142857129</v>
       </c>
       <c r="D22" s="3">
-        <f>AVERAGEIF($J$2:$J$13,$A22,N$2:N$13)</f>
-        <v>0.37777777777777777</v>
+        <f t="shared" si="1"/>
+        <v>5.8333333333333334E-2</v>
       </c>
       <c r="E22" s="5">
         <f>SUMIF($J$2:$J$13,A22,$K$2:$K$13)*10</f>
@@ -2786,16 +2728,16 @@
         <v>24</v>
       </c>
       <c r="B23" s="2">
-        <f>AVERAGEIF($J$2:$J$13,$A23,L$2:L$13)</f>
+        <f t="shared" si="1"/>
         <v>12.166666666666666</v>
       </c>
       <c r="C23" s="3">
-        <f>AVERAGEIF($J$2:$J$13,$A23,M$2:M$13)</f>
+        <f t="shared" si="1"/>
         <v>0.68088888888888899</v>
       </c>
       <c r="D23" s="3">
-        <f>AVERAGEIF($J$2:$J$13,$A23,N$2:N$13)</f>
-        <v>0.87303653534127645</v>
+        <f t="shared" si="1"/>
+        <v>0.53720849808819116</v>
       </c>
       <c r="E23" s="5">
         <f>COUNTIF(J2:J13,A23)*1000</f>
@@ -2804,7 +2746,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" thickBot="1">
       <c r="D24" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" s="8">
         <f>SUM(E21:E23)</f>
@@ -2818,26 +2760,29 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B17:B18" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
